--- a/data/results/advanced_analysis/mood_results/阿里健康大药房_sentiment.xlsx
+++ b/data/results/advanced_analysis/mood_results/阿里健康大药房_sentiment.xlsx
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -531,14 +531,14 @@
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80.5</v>
+        <v>74.5</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1061,11 +1061,11 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1184,11 +1184,11 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1345,13 +1345,13 @@
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.5</v>
+        <v>47</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1945,12 +1945,12 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2263,7 +2263,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2743,7 +2743,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3036,11 +3036,11 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3194,7 +3194,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3202,14 +3202,14 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>7</v>
       </c>
       <c r="J74" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
@@ -3479,7 +3479,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M79" t="n">
         <v>2</v>
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3768,13 +3768,13 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="J82" t="n">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="K82" t="n">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>128.25</v>
+        <v>135</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>128.25</v>
+        <v>135</v>
       </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
@@ -4088,7 +4088,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
@@ -4129,7 +4129,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4215,11 +4215,11 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4250,7 +4250,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4260,10 +4260,10 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="J94" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
@@ -4373,7 +4373,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4414,7 +4414,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4423,10 +4423,10 @@
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I98" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4865,10 +4865,10 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H109" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4900,7 +4900,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4939,23 +4939,23 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>12</v>
+        <v>-16</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>非常正面</t>
+          <t>非常负面</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>12</v>
+        <v>-16</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>12</v>
+        <v>-16</v>
       </c>
       <c r="K111" t="n">
-        <v>12</v>
+        <v>-16</v>
       </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
@@ -5023,7 +5023,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5031,16 +5031,16 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="H113" t="n">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="M113" t="n">
         <v>3</v>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -5150,7 +5150,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5279,10 +5279,10 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J119" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
@@ -5476,11 +5476,11 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>非常正面</t>
+          <t>非常负面</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
@@ -5515,7 +5515,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5597,7 +5597,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5605,13 +5605,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H127" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I127" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5763,7 +5763,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5923,17 +5923,17 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5964,7 +5964,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6211,10 +6211,10 @@
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I142" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
@@ -6403,7 +6403,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -6451,10 +6451,10 @@
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I148" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -6485,7 +6485,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -6496,10 +6496,10 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K149" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
@@ -6528,7 +6528,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6686,7 +6686,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6846,11 +6846,11 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
@@ -6963,7 +6963,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7080,7 +7080,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -7160,7 +7160,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -7240,7 +7240,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7250,10 +7250,10 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J168" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
@@ -7283,7 +7283,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
@@ -7441,7 +7441,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7449,12 +7449,12 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
@@ -7484,7 +7484,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
@@ -7566,7 +7566,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="M176" t="n">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -7880,17 +7880,17 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-4.5</v>
+        <v>30</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>非常负面</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="n">
-        <v>-4.5</v>
+        <v>30</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
@@ -7962,7 +7962,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M187" t="n">
         <v>2</v>
@@ -8081,7 +8081,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="M192" t="n">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M194" t="n">
         <v>0</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-30</v>
+        <v>-3</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>-30</v>
+        <v>-3</v>
       </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
@@ -8442,7 +8442,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
@@ -8483,7 +8483,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
@@ -8563,7 +8563,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
@@ -8643,7 +8643,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
@@ -8684,7 +8684,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8732,10 +8732,10 @@
       </c>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I205" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
@@ -8766,7 +8766,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M207" t="n">
         <v>0</v>
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -8895,13 +8895,13 @@
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="n">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="J209" t="n">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="K209" t="n">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
@@ -8969,7 +8969,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
       </c>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -9088,7 +9088,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
@@ -9168,7 +9168,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="n">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
@@ -9250,7 +9250,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -9303,12 +9303,12 @@
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="n">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="M219" t="n">
         <v>2</v>
@@ -9336,7 +9336,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
       </c>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -9535,7 +9535,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
@@ -9576,7 +9576,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
@@ -9617,7 +9617,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -9738,18 +9738,18 @@
         </is>
       </c>
       <c r="E230" t="n">
+        <v>17</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>非常正面</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
         <v>15</v>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>非常正面</t>
-        </is>
-      </c>
-      <c r="G230" t="n">
-        <v>18</v>
-      </c>
       <c r="H230" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9781,11 +9781,11 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-20</v>
+        <v>16</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>非常负面</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G231" t="inlineStr"/>
@@ -9820,7 +9820,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -9984,13 +9984,13 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H236" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I236" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10031,10 +10031,10 @@
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J237" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
@@ -10064,7 +10064,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -10111,11 +10111,11 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
@@ -10189,7 +10189,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -10236,14 +10236,14 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M242" t="n">
         <v>2</v>
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -10390,7 +10390,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
@@ -10431,7 +10431,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -10441,11 +10441,11 @@
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
@@ -10513,7 +10513,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -10522,12 +10522,12 @@
       </c>
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
@@ -10556,7 +10556,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -10642,15 +10642,15 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H252" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
@@ -10679,7 +10679,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -10728,10 +10728,10 @@
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J254" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
@@ -10761,7 +10761,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="M258" t="n">
         <v>2</v>
@@ -10919,7 +10919,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -10929,10 +10929,10 @@
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J259" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
@@ -10962,17 +10962,17 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>非常负面</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G260" t="inlineStr"/>
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
@@ -11003,7 +11003,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
@@ -11083,11 +11083,11 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G263" t="inlineStr"/>
@@ -11122,7 +11122,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -11210,12 +11210,12 @@
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M266" t="n">
         <v>2</v>
@@ -11243,7 +11243,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
@@ -11284,7 +11284,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
@@ -11364,7 +11364,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -11374,11 +11374,11 @@
       <c r="G270" t="inlineStr"/>
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
@@ -11407,7 +11407,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
       <c r="G272" t="inlineStr"/>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
@@ -11487,7 +11487,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -11497,11 +11497,11 @@
       <c r="G273" t="inlineStr"/>
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
@@ -11530,7 +11530,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
       <c r="G274" t="inlineStr"/>
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -11583,10 +11583,10 @@
       </c>
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="J275" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
@@ -11616,7 +11616,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -11624,16 +11624,16 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="H276" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I276" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J276" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="K276" t="n">
         <v>0</v>
@@ -11704,7 +11704,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -11712,10 +11712,10 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H278" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11786,7 +11786,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
@@ -11905,7 +11905,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
@@ -11985,7 +11985,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M287" t="n">
         <v>2</v>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -12143,11 +12143,11 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G289" t="inlineStr"/>
@@ -12182,7 +12182,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
       <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
@@ -12223,7 +12223,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K291" t="n">
         <v>0</v>
@@ -12266,11 +12266,11 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-13</v>
+        <v>18</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>非常负面</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G292" t="inlineStr"/>
@@ -12385,7 +12385,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -12395,13 +12395,13 @@
       <c r="G295" t="inlineStr"/>
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J295" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K295" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
@@ -12430,7 +12430,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
       <c r="G296" t="inlineStr"/>
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
       <c r="G303" t="inlineStr"/>
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
@@ -12748,7 +12748,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -12757,10 +12757,10 @@
       </c>
       <c r="G304" t="inlineStr"/>
       <c r="H304" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I304" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -12990,11 +12990,11 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>非常正面</t>
+          <t>非常负面</t>
         </is>
       </c>
       <c r="G310" t="inlineStr"/>
@@ -13029,7 +13029,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
@@ -13070,7 +13070,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
       <c r="G312" t="inlineStr"/>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
@@ -13150,7 +13150,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
       <c r="G314" t="inlineStr"/>
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
@@ -13191,7 +13191,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr"/>
@@ -13232,7 +13232,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -13240,13 +13240,13 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="H316" t="n">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="I316" t="n">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
@@ -13277,7 +13277,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -13285,11 +13285,11 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
@@ -13320,7 +13320,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M318" t="n">
         <v>2</v>
@@ -13361,7 +13361,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
       <c r="G320" t="inlineStr"/>
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
@@ -13441,7 +13441,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
       <c r="G322" t="inlineStr"/>
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
@@ -13562,7 +13562,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
       <c r="G324" t="inlineStr"/>
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
@@ -13603,7 +13603,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
@@ -13683,7 +13683,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -13730,11 +13730,11 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
@@ -13765,7 +13765,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -13931,10 +13931,10 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H333" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13966,7 +13966,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -13975,10 +13975,10 @@
       </c>
       <c r="G334" t="inlineStr"/>
       <c r="H334" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I334" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
@@ -14050,7 +14050,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -14058,13 +14058,13 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H336" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I336" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
@@ -14095,7 +14095,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
@@ -14136,7 +14136,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
       </c>
       <c r="G338" t="inlineStr"/>
       <c r="H338" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
       <c r="G339" t="inlineStr"/>
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
@@ -14220,7 +14220,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
@@ -14229,12 +14229,12 @@
       </c>
       <c r="G340" t="inlineStr"/>
       <c r="H340" t="n">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
@@ -14263,7 +14263,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
       <c r="G342" t="inlineStr"/>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
@@ -14343,7 +14343,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
       <c r="G343" t="inlineStr"/>
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
@@ -14384,7 +14384,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr"/>
@@ -14544,17 +14544,17 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G348" t="inlineStr"/>
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
@@ -14585,7 +14585,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -14593,17 +14593,17 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H349" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I349" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
@@ -14632,11 +14632,11 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>非常正面</t>
+          <t>非常负面</t>
         </is>
       </c>
       <c r="G350" t="inlineStr"/>
@@ -14644,7 +14644,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
@@ -14673,7 +14673,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>130</v>
+        <v>223</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
@@ -14722,12 +14722,12 @@
       <c r="G352" t="inlineStr"/>
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="M352" t="n">
         <v>0</v>
@@ -14755,7 +14755,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
       <c r="G355" t="inlineStr"/>
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
@@ -14874,7 +14874,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -14883,10 +14883,10 @@
       </c>
       <c r="G356" t="inlineStr"/>
       <c r="H356" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I356" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
@@ -14960,7 +14960,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr"/>
@@ -15040,11 +15040,11 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>非常负面</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G360" t="inlineStr"/>
@@ -15118,7 +15118,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
       <c r="G362" t="inlineStr"/>
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
@@ -15395,7 +15395,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
@@ -15403,11 +15403,11 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="n">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
@@ -15438,7 +15438,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
       <c r="G370" t="inlineStr"/>
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="n">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
@@ -15479,7 +15479,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="K371" t="n">
         <v>0</v>
@@ -15522,7 +15522,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
       </c>
       <c r="G373" t="inlineStr"/>
       <c r="H373" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -15602,7 +15602,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
@@ -15766,13 +15766,13 @@
         </is>
       </c>
       <c r="G378" t="n">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H378" t="n">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I378" t="n">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
@@ -15803,7 +15803,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
       <c r="G379" t="inlineStr"/>
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
       <c r="G385" t="inlineStr"/>
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
@@ -16080,7 +16080,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
       <c r="G388" t="inlineStr"/>
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="n">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
@@ -16199,7 +16199,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M391" t="n">
         <v>2</v>
@@ -16318,7 +16318,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M395" t="n">
         <v>2</v>
@@ -16560,18 +16560,18 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>非常负面</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G398" t="inlineStr"/>
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr"/>
@@ -16601,7 +16601,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
       <c r="G399" t="inlineStr"/>
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
@@ -16681,7 +16681,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F403" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
@@ -16886,11 +16886,11 @@
         </is>
       </c>
       <c r="G406" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
       </c>
       <c r="G407" t="inlineStr"/>
       <c r="H407" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -16962,7 +16962,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
       </c>
       <c r="G412" t="inlineStr"/>
       <c r="H412" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -17163,7 +17163,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F413" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F414" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F415" t="inlineStr">
         <is>
@@ -17249,16 +17249,16 @@
         </is>
       </c>
       <c r="G415" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H415" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I415" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J415" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="K415" t="n">
         <v>7</v>
@@ -17290,7 +17290,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F416" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
       </c>
       <c r="G416" t="inlineStr"/>
       <c r="H416" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -17331,7 +17331,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F417" t="inlineStr">
         <is>
@@ -17340,14 +17340,14 @@
       </c>
       <c r="G417" t="inlineStr"/>
       <c r="H417" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I417" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
@@ -17415,7 +17415,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F419" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F421" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M422" t="n">
         <v>0</v>
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>37.5</v>
+        <v>44</v>
       </c>
       <c r="F426" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F427" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr"/>
@@ -17854,7 +17854,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
@@ -17864,10 +17864,10 @@
       <c r="G430" t="inlineStr"/>
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="J430" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="K430" t="inlineStr"/>
       <c r="L430" t="inlineStr"/>
@@ -17936,7 +17936,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
       <c r="G433" t="inlineStr"/>
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
@@ -18016,7 +18016,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -18094,7 +18094,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L436" t="inlineStr"/>
       <c r="M436" t="n">
@@ -18135,7 +18135,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M437" t="n">
         <v>4</v>
@@ -18176,7 +18176,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -18186,13 +18186,13 @@
       <c r="G438" t="inlineStr"/>
       <c r="H438" t="inlineStr"/>
       <c r="I438" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="J438" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K438" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="L438" t="inlineStr"/>
       <c r="M438" t="n">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
@@ -18229,12 +18229,12 @@
         </is>
       </c>
       <c r="G439" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K439" t="inlineStr"/>
       <c r="L439" t="inlineStr"/>
@@ -18303,7 +18303,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F441" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F442" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F443" t="inlineStr">
         <is>
@@ -18391,10 +18391,10 @@
       <c r="G443" t="inlineStr"/>
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J443" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K443" t="inlineStr"/>
       <c r="L443" t="inlineStr"/>
@@ -18424,7 +18424,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F444" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F448" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F449" t="inlineStr">
         <is>
@@ -18630,13 +18630,13 @@
       </c>
       <c r="G449" t="inlineStr"/>
       <c r="H449" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I449" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J449" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K449" t="inlineStr"/>
       <c r="L449" t="inlineStr"/>
@@ -18748,7 +18748,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F452" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
       </c>
       <c r="G452" t="inlineStr"/>
       <c r="H452" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -18830,7 +18830,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="F454" t="inlineStr">
         <is>
@@ -18840,12 +18840,12 @@
       <c r="G454" t="inlineStr"/>
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="M454" t="n">
         <v>2</v>
@@ -18873,7 +18873,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F456" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="M456" t="n">
         <v>2</v>
@@ -18953,7 +18953,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
       <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
@@ -19033,11 +19033,11 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>非常正面</t>
+          <t>非常负面</t>
         </is>
       </c>
       <c r="G459" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F461" t="inlineStr">
         <is>
@@ -19120,10 +19120,10 @@
       </c>
       <c r="G461" t="inlineStr"/>
       <c r="H461" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I461" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
@@ -19154,7 +19154,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F462" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         </is>
       </c>
       <c r="G462" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F463" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F464" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F465" t="inlineStr">
         <is>
@@ -19281,12 +19281,12 @@
         </is>
       </c>
       <c r="G465" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K465" t="inlineStr"/>
       <c r="L465" t="inlineStr"/>
@@ -19316,7 +19316,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L466" t="inlineStr"/>
       <c r="M466" t="n">
@@ -19357,7 +19357,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F467" t="inlineStr">
         <is>
@@ -19437,7 +19437,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F469" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M469" t="n">
         <v>2</v>
@@ -19478,11 +19478,11 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G470" t="inlineStr"/>
@@ -19490,7 +19490,7 @@
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L470" t="inlineStr"/>
       <c r="M470" t="n">
@@ -19519,7 +19519,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F471" t="inlineStr">
         <is>
@@ -19528,10 +19528,10 @@
       </c>
       <c r="G471" t="inlineStr"/>
       <c r="H471" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I471" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
@@ -19562,7 +19562,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
       </c>
       <c r="G472" t="inlineStr"/>
       <c r="H472" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -19681,7 +19681,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F475" t="inlineStr">
         <is>
@@ -19720,11 +19720,11 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>非常负面</t>
+          <t>中性</t>
         </is>
       </c>
       <c r="G476" t="inlineStr"/>
@@ -19759,7 +19759,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F479" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
       <c r="G479" t="inlineStr"/>
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
@@ -19880,7 +19880,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F480" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M480" t="n">
         <v>2</v>
@@ -19921,18 +19921,18 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G481" t="inlineStr"/>
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K481" t="inlineStr"/>
       <c r="L481" t="inlineStr"/>
@@ -19962,7 +19962,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F482" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F483" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
       </c>
       <c r="G483" t="inlineStr"/>
       <c r="H483" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -20042,7 +20042,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         </is>
       </c>
       <c r="G484" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr"/>
@@ -20124,7 +20124,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F486" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F488" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L488" t="inlineStr"/>
       <c r="M488" t="n">
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F492" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
       </c>
       <c r="G492" t="inlineStr"/>
       <c r="H492" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -20442,7 +20442,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F494" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F495" t="inlineStr">
         <is>
@@ -20491,12 +20491,12 @@
       <c r="G495" t="inlineStr"/>
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="M495" t="n">
         <v>0</v>
@@ -20524,7 +20524,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F496" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
       <c r="G496" t="inlineStr"/>
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F497" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F499" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
       <c r="G500" t="inlineStr"/>
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
@@ -20723,7 +20723,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M501" t="n">
         <v>2</v>
@@ -20842,7 +20842,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F504" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="L509" t="inlineStr"/>
       <c r="M509" t="n">
@@ -21084,7 +21084,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
@@ -21094,10 +21094,10 @@
       <c r="G510" t="inlineStr"/>
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J510" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K510" t="inlineStr"/>
       <c r="L510" t="inlineStr"/>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -21166,7 +21166,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F512" t="inlineStr">
         <is>
@@ -21175,13 +21175,13 @@
       </c>
       <c r="G512" t="inlineStr"/>
       <c r="H512" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I512" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J512" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K512" t="inlineStr"/>
       <c r="L512" t="inlineStr"/>
@@ -21211,7 +21211,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -21219,13 +21219,13 @@
         </is>
       </c>
       <c r="G513" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="H513" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="I513" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
@@ -21256,7 +21256,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
@@ -21304,11 +21304,11 @@
       </c>
       <c r="G515" t="inlineStr"/>
       <c r="H515" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K515" t="inlineStr"/>
       <c r="L515" t="inlineStr"/>
@@ -21338,7 +21338,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F516" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
       <c r="G516" t="inlineStr"/>
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
@@ -21379,7 +21379,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>80.5</v>
+        <v>88.5</v>
       </c>
       <c r="F517" t="inlineStr">
         <is>
@@ -21418,7 +21418,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F518" t="inlineStr">
         <is>
@@ -21426,11 +21426,11 @@
         </is>
       </c>
       <c r="G518" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H518" t="inlineStr"/>
       <c r="I518" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
@@ -21500,7 +21500,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M520" t="n">
         <v>0</v>
@@ -21541,7 +21541,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F521" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F522" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L522" t="inlineStr"/>
       <c r="M522" t="n">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
@@ -21660,7 +21660,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F524" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M524" t="n">
         <v>0</v>
@@ -21701,7 +21701,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F525" t="inlineStr">
         <is>
@@ -21740,7 +21740,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F526" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
       <c r="G526" t="inlineStr"/>
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
@@ -21781,7 +21781,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F527" t="inlineStr">
         <is>
@@ -21789,12 +21789,12 @@
         </is>
       </c>
       <c r="G527" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H527" t="inlineStr"/>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K527" t="inlineStr"/>
       <c r="L527" t="inlineStr"/>
@@ -21824,7 +21824,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F528" t="inlineStr">
         <is>
@@ -21834,10 +21834,10 @@
       <c r="G528" t="inlineStr"/>
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J528" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="K528" t="inlineStr"/>
       <c r="L528" t="inlineStr"/>
@@ -21867,7 +21867,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F529" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
       <c r="G529" t="inlineStr"/>
       <c r="H529" t="inlineStr"/>
       <c r="I529" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
@@ -21949,7 +21949,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F531" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
       </c>
       <c r="G531" t="inlineStr"/>
       <c r="H531" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -21990,7 +21990,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F532" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F533" t="inlineStr">
         <is>
@@ -22039,13 +22039,13 @@
       <c r="G533" t="inlineStr"/>
       <c r="H533" t="inlineStr"/>
       <c r="I533" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="J533" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K533" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L533" t="inlineStr"/>
       <c r="M533" t="n">
@@ -22074,7 +22074,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F535" t="inlineStr">
         <is>
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="G535" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr"/>
@@ -22154,7 +22154,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
@@ -22163,10 +22163,10 @@
       </c>
       <c r="G536" t="inlineStr"/>
       <c r="H536" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I536" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
@@ -22277,7 +22277,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F539" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
@@ -22325,10 +22325,10 @@
       </c>
       <c r="G540" t="inlineStr"/>
       <c r="H540" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I540" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
@@ -22359,7 +22359,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F541" t="inlineStr">
         <is>
@@ -22367,10 +22367,10 @@
         </is>
       </c>
       <c r="G541" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H541" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F542" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
       <c r="G542" t="inlineStr"/>
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
@@ -22484,7 +22484,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F544" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         </is>
       </c>
       <c r="G545" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr"/>
@@ -22572,11 +22572,11 @@
         </is>
       </c>
       <c r="G546" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H546" t="inlineStr"/>
       <c r="I546" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
@@ -22607,7 +22607,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F547" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F548" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F549" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F551" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
       <c r="G551" t="inlineStr"/>
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
@@ -22804,7 +22804,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
       <c r="G552" t="inlineStr"/>
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
@@ -22886,7 +22886,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F554" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
       <c r="G554" t="inlineStr"/>
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -22938,10 +22938,10 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K555" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L555" t="inlineStr"/>
       <c r="M555" t="n">
@@ -22970,7 +22970,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F556" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
       </c>
       <c r="G556" t="inlineStr"/>
       <c r="H556" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -23011,7 +23011,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F558" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F559" t="inlineStr">
         <is>
@@ -23100,11 +23100,11 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M559" t="n">
         <v>2</v>
@@ -23132,7 +23132,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F560" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
       </c>
       <c r="G560" t="inlineStr"/>
       <c r="H560" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -23173,7 +23173,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F561" t="inlineStr">
         <is>
@@ -23184,10 +23184,10 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="K561" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="L561" t="inlineStr"/>
       <c r="M561" t="n">
@@ -23216,7 +23216,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F562" t="inlineStr">
         <is>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F563" t="inlineStr">
         <is>
@@ -23264,14 +23264,14 @@
       </c>
       <c r="G563" t="inlineStr"/>
       <c r="H563" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="I563" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="L563" t="inlineStr"/>
       <c r="M563" t="n">
@@ -23300,7 +23300,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F564" t="inlineStr">
         <is>
@@ -23339,7 +23339,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F565" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F566" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
       </c>
       <c r="G566" t="inlineStr"/>
       <c r="H566" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F567" t="inlineStr">
         <is>
@@ -23428,10 +23428,10 @@
       </c>
       <c r="G567" t="inlineStr"/>
       <c r="H567" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I567" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
@@ -23462,7 +23462,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F568" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F569" t="inlineStr">
         <is>
@@ -23509,14 +23509,14 @@
         </is>
       </c>
       <c r="G569" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H569" t="inlineStr"/>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M569" t="n">
         <v>2</v>
@@ -23583,7 +23583,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F571" t="inlineStr">
         <is>
@@ -23592,10 +23592,10 @@
       </c>
       <c r="G571" t="inlineStr"/>
       <c r="H571" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I571" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
@@ -23626,7 +23626,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F572" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         </is>
       </c>
       <c r="G572" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr"/>
@@ -23706,7 +23706,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F574" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F575" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
       <c r="G575" t="inlineStr"/>
       <c r="H575" t="inlineStr"/>
       <c r="I575" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
@@ -23786,7 +23786,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>150.5</v>
+        <v>173</v>
       </c>
       <c r="F576" t="inlineStr">
         <is>
@@ -23825,7 +23825,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F577" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F578" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F579" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F580" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="F581" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
       <c r="G581" t="inlineStr"/>
       <c r="H581" t="inlineStr"/>
       <c r="I581" t="n">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
@@ -24022,7 +24022,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>22.5</v>
+        <v>39</v>
       </c>
       <c r="F582" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F583" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F584" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
       </c>
       <c r="G584" t="inlineStr"/>
       <c r="H584" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -24141,7 +24141,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F585" t="inlineStr">
         <is>
@@ -24149,10 +24149,10 @@
         </is>
       </c>
       <c r="G585" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H585" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -24184,7 +24184,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F586" t="inlineStr">
         <is>
@@ -24192,17 +24192,17 @@
         </is>
       </c>
       <c r="G586" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H586" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="I586" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L586" t="inlineStr"/>
       <c r="M586" t="n">
@@ -24231,7 +24231,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F587" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F588" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F589" t="inlineStr">
         <is>
@@ -24318,10 +24318,10 @@
       </c>
       <c r="G589" t="inlineStr"/>
       <c r="H589" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="I589" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
@@ -24352,7 +24352,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F590" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F591" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F592" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F593" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F594" t="inlineStr">
         <is>
@@ -24519,7 +24519,7 @@
       <c r="H594" t="inlineStr"/>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K594" t="inlineStr"/>
       <c r="L594" t="inlineStr"/>
@@ -24549,7 +24549,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F595" t="inlineStr">
         <is>
@@ -24559,10 +24559,10 @@
       <c r="G595" t="inlineStr"/>
       <c r="H595" t="inlineStr"/>
       <c r="I595" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="J595" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="K595" t="inlineStr"/>
       <c r="L595" t="inlineStr"/>
@@ -24592,7 +24592,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F596" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F597" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F598" t="inlineStr">
         <is>
@@ -24709,7 +24709,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F599" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
       </c>
       <c r="G599" t="inlineStr"/>
       <c r="H599" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="I599" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
@@ -24791,7 +24791,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F601" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
       <c r="G601" t="inlineStr"/>
       <c r="H601" t="inlineStr"/>
       <c r="I601" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
@@ -24910,7 +24910,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F604" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="F605" t="inlineStr">
         <is>
@@ -25027,7 +25027,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F607" t="inlineStr">
         <is>
@@ -25035,11 +25035,11 @@
         </is>
       </c>
       <c r="G607" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H607" t="inlineStr"/>
       <c r="I607" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
@@ -25070,7 +25070,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F608" t="inlineStr">
         <is>
@@ -25082,7 +25082,7 @@
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L608" t="inlineStr"/>
       <c r="M608" t="n">
@@ -25111,7 +25111,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F609" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F610" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F611" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="M611" t="n">
         <v>2</v>
@@ -25269,7 +25269,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F613" t="inlineStr">
         <is>
@@ -25308,11 +25308,11 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>非常负面</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G614" t="inlineStr"/>
@@ -25440,7 +25440,7 @@
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M617" t="n">
         <v>0</v>
@@ -25468,7 +25468,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F618" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F619" t="inlineStr">
         <is>
@@ -25520,7 +25520,7 @@
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M619" t="n">
         <v>2</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F620" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
       <c r="G620" t="inlineStr"/>
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
@@ -25589,7 +25589,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F621" t="inlineStr">
         <is>
@@ -25667,7 +25667,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F623" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F624" t="inlineStr">
         <is>
@@ -25714,15 +25714,15 @@
         </is>
       </c>
       <c r="G624" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H624" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L624" t="inlineStr"/>
       <c r="M624" t="n">
@@ -25792,7 +25792,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F626" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F629" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F630" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="M630" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F631" t="inlineStr">
         <is>
@@ -26000,7 +26000,7 @@
       </c>
       <c r="G631" t="inlineStr"/>
       <c r="H631" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -26032,7 +26032,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F632" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F634" t="inlineStr">
         <is>
@@ -26149,7 +26149,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F635" t="inlineStr">
         <is>
@@ -26188,17 +26188,17 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>-8</v>
+        <v>28</v>
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>非常负面</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G636" t="inlineStr"/>
       <c r="H636" t="inlineStr"/>
       <c r="I636" t="n">
-        <v>-13</v>
+        <v>23</v>
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
@@ -26229,7 +26229,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F637" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F638" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F639" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L639" t="inlineStr"/>
       <c r="M639" t="n">
@@ -26348,7 +26348,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F640" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
       <c r="G640" t="inlineStr"/>
       <c r="H640" t="inlineStr"/>
       <c r="I640" t="n">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F641" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F642" t="inlineStr">
         <is>
@@ -26436,11 +26436,11 @@
         </is>
       </c>
       <c r="G642" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H642" t="inlineStr"/>
       <c r="I642" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F643" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="F644" t="inlineStr">
         <is>
@@ -26520,11 +26520,11 @@
         </is>
       </c>
       <c r="G644" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="H644" t="inlineStr"/>
       <c r="I644" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
@@ -26555,7 +26555,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F645" t="inlineStr">
         <is>
@@ -26594,7 +26594,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F646" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M646" t="n">
         <v>0</v>
@@ -26676,7 +26676,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F648" t="inlineStr">
         <is>
@@ -26686,12 +26686,12 @@
       <c r="G648" t="inlineStr"/>
       <c r="H648" t="inlineStr"/>
       <c r="I648" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="M648" t="n">
         <v>1</v>
@@ -26719,7 +26719,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F649" t="inlineStr">
         <is>
@@ -26758,7 +26758,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F650" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F651" t="inlineStr">
         <is>
@@ -26836,7 +26836,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F652" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F653" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
       <c r="G653" t="inlineStr"/>
       <c r="H653" t="inlineStr"/>
       <c r="I653" t="n">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
@@ -26916,7 +26916,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F654" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F656" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         </is>
       </c>
       <c r="G656" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H656" t="inlineStr"/>
       <c r="I656" t="inlineStr"/>
@@ -27039,7 +27039,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F657" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M657" t="n">
         <v>0</v>
@@ -27123,7 +27123,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F659" t="inlineStr">
         <is>
@@ -27162,7 +27162,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F660" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>0</v>
       </c>
       <c r="L660" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M660" t="n">
         <v>2</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F661" t="inlineStr">
         <is>
@@ -27219,7 +27219,7 @@
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="L661" t="inlineStr"/>
       <c r="M661" t="n">
@@ -27248,7 +27248,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>53.5</v>
+        <v>65</v>
       </c>
       <c r="F662" t="inlineStr">
         <is>
@@ -27326,17 +27326,17 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F664" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G664" t="inlineStr"/>
       <c r="H664" t="inlineStr"/>
       <c r="I664" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F665" t="inlineStr">
         <is>
@@ -27375,13 +27375,13 @@
         </is>
       </c>
       <c r="G665" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="H665" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="I665" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F666" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         </is>
       </c>
       <c r="G666" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H666" t="inlineStr"/>
       <c r="I666" t="inlineStr"/>
@@ -27453,7 +27453,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F667" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M667" t="n">
         <v>0</v>
@@ -27494,7 +27494,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F668" t="inlineStr">
         <is>
@@ -27502,7 +27502,7 @@
         </is>
       </c>
       <c r="G668" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H668" t="inlineStr"/>
       <c r="I668" t="inlineStr"/>
@@ -27535,7 +27535,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F669" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F670" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F671" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F672" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
       <c r="G672" t="inlineStr"/>
       <c r="H672" t="inlineStr"/>
       <c r="I672" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F673" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="L673" t="inlineStr"/>
       <c r="M673" t="n">
@@ -27734,7 +27734,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F674" t="inlineStr">
         <is>
@@ -27743,14 +27743,14 @@
       </c>
       <c r="G674" t="inlineStr"/>
       <c r="H674" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I674" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="L674" t="inlineStr"/>
       <c r="M674" t="n">
@@ -27779,7 +27779,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F675" t="inlineStr">
         <is>
@@ -27818,7 +27818,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F676" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
       </c>
       <c r="G676" t="inlineStr"/>
       <c r="H676" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -27900,7 +27900,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F678" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F679" t="inlineStr">
         <is>
@@ -27949,7 +27949,7 @@
       <c r="G679" t="inlineStr"/>
       <c r="H679" t="inlineStr"/>
       <c r="I679" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
@@ -28019,7 +28019,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="F681" t="inlineStr">
         <is>
@@ -28027,15 +28027,15 @@
         </is>
       </c>
       <c r="G681" t="n">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="H681" t="inlineStr"/>
       <c r="I681" t="n">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="n">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="L681" t="inlineStr"/>
       <c r="M681" t="n">
@@ -28103,7 +28103,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>72.5</v>
+        <v>133.5</v>
       </c>
       <c r="F683" t="inlineStr">
         <is>
@@ -28113,7 +28113,7 @@
       <c r="G683" t="inlineStr"/>
       <c r="H683" t="inlineStr"/>
       <c r="I683" t="n">
-        <v>65.5</v>
+        <v>119.5</v>
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F684" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F685" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F686" t="inlineStr">
         <is>
@@ -28236,7 +28236,7 @@
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L686" t="inlineStr"/>
       <c r="M686" t="n">
@@ -28265,7 +28265,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F687" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F691" t="inlineStr">
         <is>
@@ -28462,11 +28462,11 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>非常负面</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G692" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="F693" t="inlineStr">
         <is>
@@ -28509,10 +28509,10 @@
         </is>
       </c>
       <c r="G693" t="n">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="H693" t="n">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -28544,7 +28544,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F694" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F696" t="inlineStr">
         <is>
@@ -28661,17 +28661,17 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G697" t="inlineStr"/>
       <c r="H697" t="inlineStr"/>
       <c r="I697" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
@@ -28702,7 +28702,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F698" t="inlineStr">
         <is>
@@ -28711,10 +28711,10 @@
       </c>
       <c r="G698" t="inlineStr"/>
       <c r="H698" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I698" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F700" t="inlineStr">
         <is>
@@ -28795,7 +28795,7 @@
       </c>
       <c r="G700" t="inlineStr"/>
       <c r="H700" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -28827,7 +28827,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F702" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
       <c r="G702" t="inlineStr"/>
       <c r="H702" t="inlineStr"/>
       <c r="I702" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
@@ -29024,7 +29024,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F706" t="inlineStr">
         <is>
@@ -29102,7 +29102,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F708" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F710" t="inlineStr">
         <is>
@@ -29221,11 +29221,11 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>非常正面</t>
+          <t>中性</t>
         </is>
       </c>
       <c r="G711" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F712" t="inlineStr">
         <is>
@@ -29270,7 +29270,7 @@
       <c r="G712" t="inlineStr"/>
       <c r="H712" t="inlineStr"/>
       <c r="I712" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
@@ -29301,7 +29301,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F713" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
       <c r="G713" t="inlineStr"/>
       <c r="H713" t="inlineStr"/>
       <c r="I713" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
@@ -29342,7 +29342,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F714" t="inlineStr">
         <is>
@@ -29350,10 +29350,10 @@
         </is>
       </c>
       <c r="G714" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H714" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -29385,7 +29385,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F715" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L715" t="inlineStr"/>
       <c r="M715" t="n">
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F716" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F717" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F718" t="inlineStr">
         <is>
@@ -29513,10 +29513,10 @@
       </c>
       <c r="G718" t="inlineStr"/>
       <c r="H718" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="I718" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
@@ -29547,7 +29547,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F719" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -29595,14 +29595,14 @@
       </c>
       <c r="G720" t="inlineStr"/>
       <c r="H720" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="I720" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="L720" t="inlineStr"/>
       <c r="M720" t="n">
@@ -29631,7 +29631,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F721" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L721" t="inlineStr"/>
       <c r="M721" t="n">
@@ -29672,7 +29672,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F722" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
       <c r="G722" t="inlineStr"/>
       <c r="H722" t="inlineStr"/>
       <c r="I722" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
@@ -29713,7 +29713,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F723" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
       <c r="G723" t="inlineStr"/>
       <c r="H723" t="inlineStr"/>
       <c r="I723" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
@@ -29754,7 +29754,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F724" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
       <c r="G724" t="inlineStr"/>
       <c r="H724" t="inlineStr"/>
       <c r="I724" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
@@ -29836,7 +29836,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F726" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
       </c>
       <c r="G726" t="inlineStr"/>
       <c r="H726" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -29879,7 +29879,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F727" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="F728" t="inlineStr">
         <is>
@@ -29928,7 +29928,7 @@
       <c r="G728" t="inlineStr"/>
       <c r="H728" t="inlineStr"/>
       <c r="I728" t="n">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
@@ -30037,7 +30037,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F731" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
       <c r="G731" t="inlineStr"/>
       <c r="H731" t="inlineStr"/>
       <c r="I731" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
@@ -30078,7 +30078,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F732" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L732" t="inlineStr"/>
       <c r="M732" t="n">
@@ -30119,7 +30119,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F733" t="inlineStr">
         <is>
@@ -30158,7 +30158,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F734" t="inlineStr">
         <is>
@@ -30167,13 +30167,13 @@
       </c>
       <c r="G734" t="inlineStr"/>
       <c r="H734" t="n">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="I734" t="n">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="J734" t="n">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K734" t="inlineStr"/>
       <c r="L734" t="inlineStr"/>
@@ -30203,7 +30203,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F735" t="inlineStr">
         <is>
@@ -30213,12 +30213,12 @@
       <c r="G735" t="inlineStr"/>
       <c r="H735" t="inlineStr"/>
       <c r="I735" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M735" t="n">
         <v>0</v>
@@ -30246,7 +30246,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F736" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F738" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F739" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M739" t="n">
         <v>0</v>
@@ -30404,7 +30404,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F740" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F741" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M741" t="n">
         <v>0</v>
@@ -30525,7 +30525,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F743" t="inlineStr">
         <is>
@@ -30564,7 +30564,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F744" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
       </c>
       <c r="G744" t="inlineStr"/>
       <c r="H744" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -30605,7 +30605,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F745" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
       </c>
       <c r="G745" t="inlineStr"/>
       <c r="H745" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -30689,11 +30689,11 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F747" t="inlineStr">
         <is>
-          <t>非常负面</t>
+          <t>中性</t>
         </is>
       </c>
       <c r="G747" t="inlineStr"/>
@@ -30701,7 +30701,7 @@
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L747" t="inlineStr"/>
       <c r="M747" t="n">
@@ -30771,7 +30771,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F749" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F750" t="inlineStr">
         <is>
@@ -30849,11 +30849,11 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="F751" t="inlineStr">
         <is>
-          <t>非常负面</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G751" t="inlineStr"/>
@@ -30864,7 +30864,7 @@
         <v>-10</v>
       </c>
       <c r="L751" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M751" t="n">
         <v>2</v>
@@ -30892,7 +30892,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F752" t="inlineStr">
         <is>
@@ -31013,7 +31013,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F755" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
       <c r="G755" t="inlineStr"/>
       <c r="H755" t="inlineStr"/>
       <c r="I755" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr"/>
@@ -31054,7 +31054,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F756" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F757" t="inlineStr">
         <is>
@@ -31132,7 +31132,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F758" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="F759" t="inlineStr">
         <is>
@@ -31179,11 +31179,11 @@
         </is>
       </c>
       <c r="G759" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="H759" t="inlineStr"/>
       <c r="I759" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr"/>
@@ -31216,7 +31216,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F760" t="inlineStr">
         <is>
@@ -31255,7 +31255,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F761" t="inlineStr">
         <is>
@@ -31265,7 +31265,7 @@
       <c r="G761" t="inlineStr"/>
       <c r="H761" t="inlineStr"/>
       <c r="I761" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr"/>
@@ -31296,7 +31296,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F762" t="inlineStr">
         <is>
@@ -31374,7 +31374,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>104</v>
+        <v>92.5</v>
       </c>
       <c r="F764" t="inlineStr">
         <is>
@@ -31382,11 +31382,11 @@
         </is>
       </c>
       <c r="G764" t="n">
-        <v>45.5</v>
+        <v>46</v>
       </c>
       <c r="H764" t="inlineStr"/>
       <c r="I764" t="n">
-        <v>45.5</v>
+        <v>46</v>
       </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr"/>
@@ -31417,7 +31417,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F765" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F768" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F769" t="inlineStr">
         <is>
@@ -31653,11 +31653,11 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F771" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>非常正面</t>
         </is>
       </c>
       <c r="G771" t="inlineStr"/>
@@ -31692,11 +31692,11 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>8</v>
+        <v>-10</v>
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t>非常正面</t>
+          <t>非常负面</t>
         </is>
       </c>
       <c r="G772" t="inlineStr"/>
@@ -31704,7 +31704,7 @@
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="n">
-        <v>8</v>
+        <v>-10</v>
       </c>
       <c r="L772" t="inlineStr"/>
       <c r="M772" t="n">
@@ -31733,7 +31733,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F773" t="inlineStr">
         <is>
@@ -31811,7 +31811,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F775" t="inlineStr">
         <is>
@@ -31850,7 +31850,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F776" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F777" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L777" t="inlineStr"/>
       <c r="M777" t="n">
@@ -31930,7 +31930,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F778" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="M778" t="n">
         <v>4</v>
@@ -32010,7 +32010,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F780" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
       <c r="G780" t="inlineStr"/>
       <c r="H780" t="inlineStr"/>
       <c r="I780" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr"/>
@@ -32090,7 +32090,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="F782" t="inlineStr">
         <is>
@@ -32100,12 +32100,12 @@
       <c r="G782" t="inlineStr"/>
       <c r="H782" t="inlineStr"/>
       <c r="I782" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="M782" t="n">
         <v>0</v>
@@ -32133,7 +32133,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F783" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F784" t="inlineStr">
         <is>
@@ -32181,10 +32181,10 @@
       </c>
       <c r="G784" t="inlineStr"/>
       <c r="H784" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I784" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr"/>
@@ -32256,7 +32256,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F786" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
       <c r="G786" t="inlineStr"/>
       <c r="H786" t="inlineStr"/>
       <c r="I786" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr"/>
@@ -32297,7 +32297,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F787" t="inlineStr">
         <is>
@@ -32336,7 +32336,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F788" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F789" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="L789" t="inlineStr"/>
       <c r="M789" t="n">
@@ -32416,7 +32416,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F790" t="inlineStr">
         <is>
@@ -32426,7 +32426,7 @@
       <c r="G790" t="inlineStr"/>
       <c r="H790" t="inlineStr"/>
       <c r="I790" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr"/>
@@ -32496,7 +32496,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F792" t="inlineStr">
         <is>
@@ -32504,13 +32504,13 @@
         </is>
       </c>
       <c r="G792" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H792" t="inlineStr"/>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L792" t="inlineStr"/>
       <c r="M792" t="n">
@@ -32539,7 +32539,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F793" t="inlineStr">
         <is>
@@ -32549,10 +32549,10 @@
       <c r="G793" t="inlineStr"/>
       <c r="H793" t="inlineStr"/>
       <c r="I793" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="J793" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="K793" t="inlineStr"/>
       <c r="L793" t="inlineStr"/>
@@ -32582,7 +32582,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="F794" t="inlineStr">
         <is>
@@ -32592,12 +32592,12 @@
       <c r="G794" t="inlineStr"/>
       <c r="H794" t="inlineStr"/>
       <c r="I794" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="M794" t="n">
         <v>0</v>
@@ -32625,7 +32625,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F795" t="inlineStr">
         <is>
@@ -32634,7 +32634,7 @@
       </c>
       <c r="G795" t="inlineStr"/>
       <c r="H795" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -32666,7 +32666,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F796" t="inlineStr">
         <is>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="G796" t="inlineStr"/>
       <c r="H796" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F797" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
       </c>
       <c r="G797" t="inlineStr"/>
       <c r="H797" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -32787,7 +32787,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F799" t="inlineStr">
         <is>
